--- a/data/trans_camb/P37-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P37-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>6.49232727093807</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>31.02913969725696</v>
+        <v>31.02913969725695</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.399490155521803</v>
+        <v>4.703803620516833</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.942901092198468</v>
+        <v>2.731899181453063</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20.45482912555744</v>
+        <v>20.45280093470852</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4706309161755404</v>
+        <v>-0.078312773224177</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.290808195748129</v>
+        <v>1.844163861117196</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>31.22278516718416</v>
+        <v>31.47296570625544</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.0102764150842</v>
+        <v>3.051804485207503</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.51670257299104</v>
+        <v>3.65687109253324</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>27.8593199367399</v>
+        <v>27.9315836243865</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.5883319136208</v>
+        <v>12.92631580086868</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.62120354781076</v>
+        <v>11.36172972218595</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30.01754235074854</v>
+        <v>30.35215932553021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.547354410010064</v>
+        <v>7.532511273178587</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.908195868150468</v>
+        <v>10.09225953103336</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>38.431535339314</v>
+        <v>38.31788468198599</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.659614703400679</v>
+        <v>8.654532372663201</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.455113262552601</v>
+        <v>9.368811059246376</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>33.80871376896062</v>
+        <v>34.05718280109299</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1540114960486777</v>
+        <v>0.1627892129774866</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1026514416713109</v>
+        <v>0.1012170903030521</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.7163357168892812</v>
+        <v>0.729397897985009</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.01222983682960723</v>
+        <v>-0.002474660050217035</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04589139690200603</v>
+        <v>0.06017269465699689</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9880199855751688</v>
+        <v>0.984355424339201</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1032245842158333</v>
+        <v>0.106003047943693</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1180188096391801</v>
+        <v>0.1249780798720858</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.9359691173079061</v>
+        <v>0.9356847765250631</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4974880685441813</v>
+        <v>0.5210528049265675</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4573270986284895</v>
+        <v>0.4523939086426733</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.192096184781357</v>
+        <v>1.220946138288137</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2633167953797684</v>
+        <v>0.2681196032603039</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3576623977625784</v>
+        <v>0.3563713203787096</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.382385482719837</v>
+        <v>1.366108155403364</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3165875087253955</v>
+        <v>0.3209196189050038</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3498337214555829</v>
+        <v>0.3503606473376988</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.252160980144845</v>
+        <v>1.259682227173</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.504113209864253</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17.86741757559519</v>
+        <v>17.8674175755952</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.640140049670031</v>
@@ -869,7 +869,7 @@
         <v>3.881562267570024</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>20.51821494578141</v>
+        <v>20.5182149457814</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.24405915835812</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.832870666301575</v>
+        <v>1.839998576629552</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.462059783382316</v>
+        <v>1.702188994068691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15.59120559655604</v>
+        <v>15.32030534735427</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5896511408851682</v>
+        <v>0.7400701291989218</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.884952026324569</v>
+        <v>1.952032166399069</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.13061305920343</v>
+        <v>18.62436146114912</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.940131342548766</v>
+        <v>1.910709203411928</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.324775897957501</v>
+        <v>2.201041596876425</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.51240000242759</v>
+        <v>17.54915126906374</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.763406196463991</v>
+        <v>5.682419881745595</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.235462822497063</v>
+        <v>5.630342834316259</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.44223954347402</v>
+        <v>20.23555576814595</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.408103795814858</v>
+        <v>4.694200245207739</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.799140884879917</v>
+        <v>5.815002269151708</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.62988746324256</v>
+        <v>22.71120841497404</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.623527925210638</v>
+        <v>4.676102199776184</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.164498188041588</v>
+        <v>4.959473155467141</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.63730694143382</v>
+        <v>20.66765793188331</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.6158175368572235</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>3.255255414600979</v>
+        <v>3.255255414600978</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4894927410135382</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2198833696756163</v>
+        <v>0.2335709360228893</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1756578353144964</v>
+        <v>0.2069678615480805</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.91360247074507</v>
+        <v>1.943428163939008</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1001351387096188</v>
+        <v>0.1069248186236724</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2492502022010409</v>
+        <v>0.2525375705708253</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.443762600543303</v>
+        <v>2.54410519691411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2701701455181456</v>
+        <v>0.261686881626003</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3266830269432419</v>
+        <v>0.3049181689245421</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2.402950398645428</v>
+        <v>2.342163764542543</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9592171722290016</v>
+        <v>0.933000774638169</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8750163162954483</v>
+        <v>0.9103054336009461</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.405544023178818</v>
+        <v>3.36573910750105</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8410052538765029</v>
+        <v>0.8720587064205059</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.084630992364258</v>
+        <v>1.066937925741792</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.315183883333347</v>
+        <v>4.355479999725706</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7892916461560049</v>
+        <v>0.7705520107233463</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8977956671449646</v>
+        <v>0.8240361072762248</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.491637416729211</v>
+        <v>3.460494955061909</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.6273084758354572</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21.48301788327113</v>
+        <v>21.48301788327112</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.2771858078498793</v>
@@ -1092,7 +1092,7 @@
         <v>0.01569388203318672</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>21.45769693368341</v>
+        <v>21.4576969336834</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.570547976188612</v>
+        <v>-4.49124980255982</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.592848322266428</v>
+        <v>-4.323878012774647</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.78753447022772</v>
+        <v>17.09305967592839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.885074439967556</v>
+        <v>-4.127173098462269</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.962102043727056</v>
+        <v>-3.277173323531558</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.50204045169014</v>
+        <v>17.41948590339362</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.298420165761347</v>
+        <v>-3.112269572556786</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.866713681336416</v>
+        <v>-2.831467379157528</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>18.37459330002832</v>
+        <v>18.50628982156073</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.646655785358691</v>
+        <v>3.865724091579931</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.475964472660289</v>
+        <v>3.458700265132684</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25.86728985276053</v>
+        <v>26.07475319981392</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.95967587389437</v>
+        <v>3.858579481267796</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.320082919551316</v>
+        <v>4.4311048193092</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>25.49853925070525</v>
+        <v>25.23069959073329</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.486927874624525</v>
+        <v>2.750037944568246</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.596138175536528</v>
+        <v>2.877063379301856</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>24.40122206605548</v>
+        <v>24.49228656665265</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.05508924758067642</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.886604974331719</v>
+        <v>1.886604974331718</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.0294699747630968</v>
@@ -1197,7 +1197,7 @@
         <v>0.00149923237781798</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2.049848082734152</v>
+        <v>2.049848082734151</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3406794700131993</v>
+        <v>-0.3463513885556918</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3510908108951564</v>
+        <v>-0.3223593480698972</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.192300579114204</v>
+        <v>1.228554187924888</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3535640159737953</v>
+        <v>-0.3664889438794635</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2739190533512559</v>
+        <v>-0.2919030199257324</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.423905267317828</v>
+        <v>1.401769270137583</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2859316494784103</v>
+        <v>-0.2660107873747151</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2369509682215594</v>
+        <v>-0.2426133006214486</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.516454441213914</v>
+        <v>1.50092239930156</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3912683750497248</v>
+        <v>0.4266312428235663</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3554474868982101</v>
+        <v>0.3774648351964082</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.756469162871949</v>
+        <v>2.773175549782312</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5741272058111621</v>
+        <v>0.5191894587701873</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5803928737553844</v>
+        <v>0.5773778870632468</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.424484001920052</v>
+        <v>3.4327661422264</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2755257449560427</v>
+        <v>0.3146929658447838</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.291697338311823</v>
+        <v>0.3154473474426179</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.730296485532359</v>
+        <v>2.816055383174725</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.855748159888285</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17.02095614452236</v>
+        <v>17.02095614452237</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.392923829918253</v>
@@ -1297,7 +1297,7 @@
         <v>1.471107348315864</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.11121034089668</v>
+        <v>20.11121034089669</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.094018240512586</v>
@@ -1306,7 +1306,7 @@
         <v>1.665978929436371</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>18.6231434397902</v>
+        <v>18.62314343979021</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.091813887366003</v>
+        <v>1.913982770634688</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1749339872746212</v>
+        <v>0.05403604334501325</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14.96331832993282</v>
+        <v>15.11616866629543</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4700812206515474</v>
+        <v>0.3644015633333507</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5296954322490938</v>
+        <v>-0.4411875639026884</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.20928321539387</v>
+        <v>18.30526017705464</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.771012955507494</v>
+        <v>1.809439104145733</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3365286301214985</v>
+        <v>0.4498096809691882</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>17.30840058494972</v>
+        <v>17.08158954732885</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.867781093063189</v>
+        <v>5.710925261122237</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.858793875859634</v>
+        <v>3.536667335447251</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.01546252925676</v>
+        <v>19.06983848305079</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.090646645452909</v>
+        <v>4.119171286025821</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.223621481915399</v>
+        <v>3.291191345867777</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.84634674900793</v>
+        <v>21.86348979985193</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.355381843829145</v>
+        <v>4.381839596739819</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.015684233384211</v>
+        <v>3.049925391236366</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>20.03860091105393</v>
+        <v>19.94984848295357</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.09280737759911674</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.268750845558353</v>
+        <v>1.268750845558354</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2079315978694783</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1402958797597123</v>
+        <v>0.1274713437457056</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01187314553118155</v>
+        <v>0.003713780828618374</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.010747516385209</v>
+        <v>1.026422923650427</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02673577183255409</v>
+        <v>0.02057648660579061</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03365149375118981</v>
+        <v>-0.02702808109723752</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.082724950994231</v>
+        <v>1.084863775078897</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.11217314430022</v>
+        <v>0.115063527631027</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02133364241903254</v>
+        <v>0.02809119919965502</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.100124654270814</v>
+        <v>1.080598373520691</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4496164089258698</v>
+        <v>0.4316001885813391</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3003186830654541</v>
+        <v>0.2697451098267613</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.468028331494697</v>
+        <v>1.470122026950392</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2743088701394997</v>
+        <v>0.2725391294563029</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2106369349104371</v>
+        <v>0.2181512336139068</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.470904749677378</v>
+        <v>1.485512964498493</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3048580119017161</v>
+        <v>0.3101154169710535</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.210362180000203</v>
+        <v>0.2170547765578645</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.40362825261789</v>
+        <v>1.40016173485213</v>
       </c>
     </row>
     <row r="28">
